--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_46.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_46.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1732"/>
+  <dimension ref="A1:N1733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.994708061218262</v>
+        <v>0.001729011535644531</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06037092208862305</v>
+        <v>0.001745939254760742</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1198136806488037</v>
+        <v>0.1029539108276367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (3, 3), (4, 4), (5, 6), (5, 1), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (2, 2), (2, 0), (1, 4), (0, 4), (2, 6), (4, 5), (2, 5), (5, 3), (3, 4), (5, 4), (4, 6), (6, 6), (0, 6), (1, 6), (3, 2), (4, 3), (6, 5), (3, 1), (6, 2), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [3, 3], [4, 4], [5, 6], [5, 1], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [2, 2], [2, 0], [1, 4], [0, 4], [2, 6], [4, 5], [2, 5], [5, 3], [3, 4], [5, 4], [4, 6], [6, 6], [0, 6], [1, 6], [3, 2], [4, 3], [6, 5], [3, 1], [6, 2], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (6, 4), (4, 4), (3, 3), (3, 5), (5, 6), (5, 1), (3, 6), (1, 5), (2, 4), (1, 4), (0, 5), (0, 4), (2, 3), (2, 5), (0, 0), (3, 4), (2, 6), (4, 6), (4, 5), (1, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (0, 6), (5, 0), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [6, 4], [4, 4], [3, 3], [3, 5], [5, 6], [5, 1], [3, 6], [1, 5], [2, 4], [1, 4], [0, 5], [0, 4], [2, 3], [2, 5], [0, 0], [3, 4], [2, 6], [4, 6], [4, 5], [1, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [0, 6], [5, 0], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (6, 4), (4, 4), (3, 3), (3, 5), (5, 6), (5, 1), (2, 3), (2, 2), (2, 0), (3, 4), (2, 1), (3, 1), (3, 2), (4, 5), (3, 0), (4, 3), (4, 6), (6, 6), (5, 4), (6, 5), (5, 3), (5, 0), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [6, 4], [4, 4], [3, 3], [3, 5], [5, 6], [5, 1], [2, 3], [2, 2], [2, 0], [3, 4], [2, 1], [3, 1], [3, 2], [4, 5], [3, 0], [4, 3], [4, 6], [6, 6], [5, 4], [6, 5], [5, 3], [5, 0], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (3, 0), (6, 4), (1, 5), (3, 6), (2, 0), (0, 5), (5, 1), (0, 4), (3, 1), (0, 3), (1, 4), (2, 5), (5, 0), (5, 3), (1, 6), (6, 0), (6, 1), (6, 6), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [3, 0], [6, 4], [1, 5], [3, 6], [2, 0], [0, 5], [5, 1], [0, 4], [3, 1], [0, 3], [1, 4], [2, 5], [5, 0], [5, 3], [1, 6], [6, 0], [6, 1], [6, 6], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (3, 0), (6, 4), (0, 6), (3, 3), (3, 1), (1, 6), (5, 1), (3, 2), (4, 3), (5, 3), (5, 4), (6, 5), (5, 0), (6, 2), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [3, 0], [6, 4], [0, 6], [3, 3], [3, 1], [1, 6], [5, 1], [3, 2], [4, 3], [5, 3], [5, 4], [6, 5], [5, 0], [6, 2], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (4, 2), (3, 1), (5, 3), (0, 6), (3, 3), (3, 2), (1, 6), (5, 1), (4, 3), (5, 0), (6, 2), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [4, 2], [3, 1], [5, 3], [0, 6], [3, 3], [3, 2], [1, 6], [5, 1], [4, 3], [5, 0], [6, 2], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (3, 1), (3, 2), (3, 3), (0, 6), (4, 3), (5, 0), (1, 6), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [3, 1], [3, 2], [3, 3], [0, 6], [4, 3], [5, 0], [1, 6], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 1), (5, 0), (5, 1), (6, 1), (0, 6), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 0], [4, 1], [3, 1], [5, 0], [5, 1], [6, 1], [0, 6], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7162,7 +7162,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>[(0, 6), (5, 1), (3, 3), (6, 0), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[0, 6], [5, 1], [3, 3], [6, 0], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8413,7 +8413,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>[(0, 6), (5, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 0), (3, 3)]</t>
+          <t>[[0, 6], [5, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 0], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (5, 1), (3, 3), (6, 0), (0, 6)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [5, 1], [3, 3], [6, 0], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 0), (4, 0), (3, 1), (5, 1), (3, 3), (6, 0), (0, 6)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 0], [4, 0], [3, 1], [5, 1], [3, 3], [6, 0], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -12090,7 +12090,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>[(4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0), (4, 1), (3, 3), (5, 1), (5, 2), (6, 0), (0, 6)]</t>
+          <t>[[4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0], [4, 1], [3, 3], [5, 1], [5, 2], [6, 0], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -13131,7 +13131,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>[(6, 4), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (3, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0), (4, 1), (4, 2), (5, 1), (5, 2), (6, 0), (0, 6)]</t>
+          <t>[[6, 4], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [3, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0], [4, 1], [4, 2], [5, 1], [5, 2], [6, 0], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -14110,7 +14110,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>[(5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 3), (5, 4), (3, 0), (6, 5), (6, 6), (3, 3), (3, 1), (6, 2), (4, 3), (3, 2), (4, 1), (4, 0), (5, 0), (4, 2), (5, 1), (5, 2), (6, 0), (6, 1), (6, 3), (0, 6)]</t>
+          <t>[[5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 3], [5, 4], [3, 0], [6, 5], [6, 6], [3, 3], [3, 1], [6, 2], [4, 3], [3, 2], [4, 1], [4, 0], [5, 0], [4, 2], [5, 1], [5, 2], [6, 0], [6, 1], [6, 3], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -14973,7 +14973,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (3, 2), (3, 3), (5, 3), (5, 4), (3, 0), (6, 5), (6, 6), (3, 1), (4, 0), (6, 2), (4, 3), (4, 1), (4, 2), (5, 0), (0, 6), (4, 4), (5, 1), (5, 2), (6, 0), (6, 1), (6, 3), (1, 6)]</t>
+          <t>[[3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [3, 2], [3, 3], [5, 3], [5, 4], [3, 0], [6, 5], [6, 6], [3, 1], [4, 0], [6, 2], [4, 3], [4, 1], [4, 2], [5, 0], [0, 6], [4, 4], [5, 1], [5, 2], [6, 0], [6, 1], [6, 3], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -15776,7 +15776,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>[(0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 2), (3, 0), (4, 5), (4, 6), (3, 1), (3, 3), (2, 5), (3, 6), (3, 5), (6, 5), (6, 6), (4, 0), (4, 1), (6, 2), (4, 3), (4, 2), (4, 4), (5, 0), (3, 4), (5, 3), (5, 1), (5, 2), (6, 0), (6, 1), (6, 3), (5, 6)]</t>
+          <t>[[0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 2], [3, 0], [4, 5], [4, 6], [3, 1], [3, 3], [2, 5], [3, 6], [3, 5], [6, 5], [6, 6], [4, 0], [4, 1], [6, 2], [4, 3], [4, 2], [4, 4], [5, 0], [3, 4], [5, 3], [5, 1], [5, 2], [6, 0], [6, 1], [6, 3], [5, 6]]</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>[(2, 5), (1, 5), (0, 4), (0, 3), (1, 2), (1, 1), (0, 0), (1, 0), (0, 1), (0, 2), (1, 3), (1, 4), (0, 5), (2, 4), (1, 6), (2, 3), (3, 1), (2, 0), (3, 5), (3, 6), (3, 3), (4, 0), (4, 5), (4, 6), (4, 1), (3, 4), (4, 3), (5, 6), (3, 0), (3, 2), (2, 1), (2, 6), (2, 2), (0, 6), (4, 2), (4, 4), (5, 3), (5, 0), (5, 4), (5, 1), (5, 2), (6, 1), (6, 0), (6, 2), (6, 3), (5, 5)]</t>
+          <t>[[2, 5], [1, 5], [0, 4], [0, 3], [1, 2], [1, 1], [0, 0], [1, 0], [0, 1], [0, 2], [1, 3], [1, 4], [0, 5], [2, 4], [1, 6], [2, 3], [3, 1], [2, 0], [3, 5], [3, 6], [3, 3], [4, 0], [4, 5], [4, 6], [4, 1], [3, 4], [4, 3], [5, 6], [3, 0], [3, 2], [2, 1], [2, 6], [2, 2], [0, 6], [4, 2], [4, 4], [5, 3], [5, 0], [5, 4], [5, 1], [5, 2], [6, 1], [6, 0], [6, 2], [6, 3], [5, 5]]</t>
         </is>
       </c>
     </row>
@@ -17307,7 +17307,7 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (0, 6), (0, 4), (2, 5), (1, 6), (3, 2), (3, 1), (4, 0), (3, 5), (3, 6), (3, 3), (4, 1), (4, 5), (4, 6), (4, 2), (3, 4), (4, 3), (5, 6), (5, 0), (5, 2), (5, 1), (2, 6), (4, 4), (0, 5), (1, 5), (1, 4), (0, 0), (3, 0), (2, 4), (5, 3), (5, 4), (6, 1), (6, 0), (6, 2), (6, 3), (5, 5)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [0, 6], [0, 4], [2, 5], [1, 6], [3, 2], [3, 1], [4, 0], [3, 5], [3, 6], [3, 3], [4, 1], [4, 5], [4, 6], [4, 2], [3, 4], [4, 3], [5, 6], [5, 0], [5, 2], [5, 1], [2, 6], [4, 4], [0, 5], [1, 5], [1, 4], [0, 0], [3, 0], [2, 4], [5, 3], [5, 4], [6, 1], [6, 0], [6, 2], [6, 3], [5, 5]]</t>
         </is>
       </c>
     </row>
@@ -17895,7 +17895,7 @@
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 4), (0, 5), (3, 0), (3, 1), (2, 3), (1, 6), (2, 4), (2, 5), (2, 6), (3, 2), (3, 3), (4, 0), (3, 5), (3, 6), (3, 4), (4, 1), (4, 5), (4, 6), (4, 2), (4, 3), (4, 4), (5, 6), (5, 0), (5, 2), (5, 1), (5, 5), (5, 3), (5, 4), (6, 4), (6, 3), (6, 0), (6, 1), (0, 6), (1, 5), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 4], [0, 5], [3, 0], [3, 1], [2, 3], [1, 6], [2, 4], [2, 5], [2, 6], [3, 2], [3, 3], [4, 0], [3, 5], [3, 6], [3, 4], [4, 1], [4, 5], [4, 6], [4, 2], [4, 3], [4, 4], [5, 6], [5, 0], [5, 2], [5, 1], [5, 5], [5, 3], [5, 4], [6, 4], [6, 3], [6, 0], [6, 1], [0, 6], [1, 5], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -18194,110 +18194,120 @@
     <row r="1728">
       <c r="A1728" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1728" t="n">
-        <v>285</v>
+        <v>0.9819289874162451</v>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1729" t="n">
-        <v>1413</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1730" t="n">
-        <v>20</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1731" t="n">
-        <v>7.471136093139648</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1732">
       <c r="A1732" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>0.3931169509887695</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1732" t="inlineStr">
+      <c r="B1733" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1732" t="inlineStr">
+      <c r="C1733" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1732" t="inlineStr">
+      <c r="D1733" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1732" t="inlineStr">
+      <c r="E1733" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1732" t="inlineStr">
+      <c r="F1733" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1732" t="inlineStr">
+      <c r="G1733" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1732" t="inlineStr">
+      <c r="H1733" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1732" t="inlineStr">
+      <c r="I1733" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1732" t="inlineStr">
+      <c r="J1733" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1732" t="inlineStr">
+      <c r="K1733" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1732" t="inlineStr">
+      <c r="L1733" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1732" t="inlineStr">
+      <c r="M1733" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1732" t="inlineStr">
+      <c r="N1733" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
